--- a/PHP Upgrade 7.4.xlsx
+++ b/PHP Upgrade 7.4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="6945" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="6945" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="issueCertifiedWarranty" sheetId="2" r:id="rId1"/>
@@ -4468,9 +4468,6 @@
     <t>Click on Add Claim</t>
   </si>
   <si>
-    <t xml:space="preserve">To verify if the User is able to get navigate to the Claim page.       </t>
-  </si>
-  <si>
     <t>Creating New Claim page should get open having New Claim page open related all the fields and Save and Cancel button as per the requirement.</t>
   </si>
   <si>
@@ -4504,6 +4501,9 @@
       </rPr>
       <t>msg will display on mandatory field</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -4511,8 +4511,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -4837,48 +4837,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4902,22 +4860,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4959,16 +4902,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4977,23 +4953,47 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5278,8 +5278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="C53" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5290,45 +5290,46 @@
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
     <col min="10" max="10" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="7" t="s">
         <v>28</v>
       </c>
@@ -5346,18 +5347,18 @@
       <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
@@ -5381,15 +5382,15 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="34" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -5461,7 +5462,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="30" t="s">
         <v>66</v>
       </c>
       <c r="J6" s="13" t="s">
@@ -5502,7 +5503,7 @@
         <v>84</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="30" t="s">
         <v>66</v>
       </c>
       <c r="J7" s="13" t="s">
@@ -5525,7 +5526,7 @@
         <v>44235</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>84</v>
+        <v>502</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>65</v>
@@ -5533,7 +5534,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="30" t="s">
         <v>66</v>
       </c>
       <c r="J8" s="11" t="s">
@@ -5558,13 +5559,13 @@
       <c r="D9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="31" t="s">
         <v>69</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="44"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="11" t="s">
         <v>70</v>
       </c>
@@ -5576,7 +5577,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>48</v>
       </c>
@@ -5584,21 +5585,21 @@
       <c r="C10" s="10">
         <v>44235</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="44" t="s">
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="31" t="s">
         <v>72</v>
       </c>
       <c r="K10" s="12"/>
@@ -5617,23 +5618,23 @@
       <c r="C11" s="10">
         <v>44235</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="44" t="s">
+      <c r="H11" s="32"/>
+      <c r="I11" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="31" t="s">
         <v>77</v>
       </c>
       <c r="K11" s="12"/>
@@ -5652,23 +5653,23 @@
       <c r="C12" s="10">
         <v>44235</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="44" t="s">
+      <c r="H12" s="32"/>
+      <c r="I12" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="31" t="s">
         <v>81</v>
       </c>
       <c r="K12" s="12"/>
@@ -5687,23 +5688,23 @@
       <c r="C13" s="10">
         <v>44235</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="44" t="s">
+      <c r="H13" s="32"/>
+      <c r="I13" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="31" t="s">
         <v>91</v>
       </c>
       <c r="K13" s="12"/>
@@ -5722,17 +5723,17 @@
       <c r="C14" s="10">
         <v>44235</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="32" t="s">
         <v>94</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="32" t="s">
         <v>95</v>
       </c>
       <c r="K14" s="12"/>
@@ -5751,17 +5752,17 @@
       <c r="C15" s="10">
         <v>44235</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="32" t="s">
         <v>106</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="32" t="s">
         <v>97</v>
       </c>
       <c r="K15" s="12"/>
@@ -5780,17 +5781,17 @@
       <c r="C16" s="10">
         <v>44235</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="32" t="s">
         <v>105</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="32" t="s">
         <v>99</v>
       </c>
       <c r="K16" s="12"/>
@@ -5809,19 +5810,19 @@
       <c r="C17" s="10">
         <v>44235</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="44" t="s">
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="47" t="s">
+      <c r="J17" s="33" t="s">
         <v>101</v>
       </c>
       <c r="K17" s="12"/>
@@ -5840,17 +5841,17 @@
       <c r="C18" s="10">
         <v>44235</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="47" t="s">
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="33" t="s">
         <v>103</v>
       </c>
       <c r="K18" s="12"/>
@@ -5869,19 +5870,19 @@
       <c r="C19" s="10">
         <v>44235</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="47" t="s">
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="33" t="s">
         <v>109</v>
       </c>
       <c r="K19" s="12"/>
@@ -5900,21 +5901,21 @@
       <c r="C20" s="10">
         <v>44235</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="44" t="s">
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="48" t="s">
+      <c r="J20" s="34" t="s">
         <v>113</v>
       </c>
       <c r="K20" s="12"/>
@@ -5933,21 +5934,21 @@
       <c r="C21" s="10">
         <v>44235</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="44" t="s">
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="48" t="s">
+      <c r="J21" s="34" t="s">
         <v>118</v>
       </c>
       <c r="K21" s="12"/>
@@ -5966,21 +5967,21 @@
       <c r="C22" s="10">
         <v>44235</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="44" t="s">
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="34" t="s">
         <v>121</v>
       </c>
       <c r="K22" s="12"/>
@@ -5999,21 +6000,21 @@
       <c r="C23" s="10">
         <v>44235</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="44" t="s">
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="48" t="s">
+      <c r="J23" s="34" t="s">
         <v>124</v>
       </c>
       <c r="K23" s="12"/>
@@ -6032,21 +6033,21 @@
       <c r="C24" s="10">
         <v>44235</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="44" t="s">
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J24" s="48" t="s">
+      <c r="J24" s="34" t="s">
         <v>127</v>
       </c>
       <c r="K24" s="12"/>
@@ -6065,21 +6066,21 @@
       <c r="C25" s="10">
         <v>44235</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="44" t="s">
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="48" t="s">
+      <c r="J25" s="34" t="s">
         <v>130</v>
       </c>
       <c r="K25" s="12"/>
@@ -6098,21 +6099,21 @@
       <c r="C26" s="10">
         <v>44235</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="44" t="s">
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="48" t="s">
+      <c r="J26" s="34" t="s">
         <v>127</v>
       </c>
       <c r="K26" s="12"/>
@@ -6131,21 +6132,21 @@
       <c r="C27" s="10">
         <v>44235</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="44" t="s">
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="48" t="s">
+      <c r="J27" s="34" t="s">
         <v>133</v>
       </c>
       <c r="K27" s="12"/>
@@ -6164,19 +6165,19 @@
       <c r="C28" s="10">
         <v>44235</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49" t="s">
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35" t="s">
         <v>136</v>
       </c>
       <c r="K28" s="12"/>
@@ -6195,21 +6196,21 @@
       <c r="C29" s="10">
         <v>44235</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="44" t="s">
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="34" t="s">
         <v>139</v>
       </c>
       <c r="K29" s="12"/>
@@ -6228,21 +6229,21 @@
       <c r="C30" s="10">
         <v>44235</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="44" t="s">
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="48" t="s">
+      <c r="J30" s="34" t="s">
         <v>142</v>
       </c>
       <c r="K30" s="12"/>
@@ -6261,19 +6262,19 @@
       <c r="C31" s="10">
         <v>44235</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49" t="s">
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35" t="s">
         <v>136</v>
       </c>
       <c r="K31" s="12"/>
@@ -6292,21 +6293,21 @@
       <c r="C32" s="10">
         <v>44235</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="G32" s="45"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="44" t="s">
+      <c r="G32" s="31"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J32" s="48" t="s">
+      <c r="J32" s="34" t="s">
         <v>147</v>
       </c>
       <c r="K32" s="12"/>
@@ -6325,21 +6326,21 @@
       <c r="C33" s="10">
         <v>44235</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="44" t="s">
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J33" s="48" t="s">
+      <c r="J33" s="34" t="s">
         <v>150</v>
       </c>
       <c r="K33" s="12"/>
@@ -6358,21 +6359,21 @@
       <c r="C34" s="10">
         <v>44235</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="44" t="s">
+      <c r="G34" s="31"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="48" t="s">
+      <c r="J34" s="34" t="s">
         <v>161</v>
       </c>
       <c r="K34" s="12"/>
@@ -6391,21 +6392,21 @@
       <c r="C35" s="10">
         <v>44235</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="G35" s="45"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="44" t="s">
+      <c r="G35" s="31"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J35" s="48" t="s">
+      <c r="J35" s="34" t="s">
         <v>165</v>
       </c>
       <c r="K35" s="12"/>
@@ -6424,21 +6425,21 @@
       <c r="C36" s="10">
         <v>44235</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="G36" s="45"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="44" t="s">
+      <c r="G36" s="31"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J36" s="48" t="s">
+      <c r="J36" s="34" t="s">
         <v>168</v>
       </c>
       <c r="K36" s="12"/>
@@ -6457,21 +6458,21 @@
       <c r="C37" s="10">
         <v>44235</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="48" t="s">
+      <c r="E37" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="44" t="s">
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J37" s="48" t="s">
+      <c r="J37" s="34" t="s">
         <v>171</v>
       </c>
       <c r="K37" s="12"/>
@@ -6490,21 +6491,21 @@
       <c r="C38" s="10">
         <v>44235</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="G38" s="45"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="44" t="s">
+      <c r="G38" s="31"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J38" s="48" t="s">
+      <c r="J38" s="34" t="s">
         <v>174</v>
       </c>
       <c r="K38" s="12"/>
@@ -6523,21 +6524,21 @@
       <c r="C39" s="10">
         <v>44235</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="44" t="s">
+      <c r="G39" s="31"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J39" s="48" t="s">
+      <c r="J39" s="34" t="s">
         <v>177</v>
       </c>
       <c r="K39" s="12"/>
@@ -6556,19 +6557,19 @@
       <c r="C40" s="10">
         <v>44235</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49" t="s">
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35" t="s">
         <v>180</v>
       </c>
       <c r="K40" s="12"/>
@@ -6587,21 +6588,21 @@
       <c r="C41" s="10">
         <v>44235</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="44" t="s">
+      <c r="G41" s="31"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J41" s="48" t="s">
+      <c r="J41" s="34" t="s">
         <v>183</v>
       </c>
       <c r="K41" s="12"/>
@@ -6620,21 +6621,21 @@
       <c r="C42" s="10">
         <v>44235</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="44" t="s">
+      <c r="G42" s="31"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J42" s="48" t="s">
+      <c r="J42" s="34" t="s">
         <v>185</v>
       </c>
       <c r="K42" s="12"/>
@@ -6653,21 +6654,21 @@
       <c r="C43" s="10">
         <v>44235</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="E43" s="48" t="s">
+      <c r="E43" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="48" t="s">
+      <c r="F43" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="44" t="s">
+      <c r="G43" s="31"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J43" s="48" t="s">
+      <c r="J43" s="34" t="s">
         <v>188</v>
       </c>
       <c r="K43" s="12"/>
@@ -6686,19 +6687,19 @@
       <c r="C44" s="10">
         <v>44235</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="49" t="s">
+      <c r="F44" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49" t="s">
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35" t="s">
         <v>191</v>
       </c>
       <c r="K44" s="12"/>
@@ -6717,21 +6718,21 @@
       <c r="C45" s="10">
         <v>44235</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G45" s="45"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="44" t="s">
+      <c r="G45" s="31"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J45" s="48" t="s">
+      <c r="J45" s="34" t="s">
         <v>153</v>
       </c>
       <c r="K45" s="12"/>
@@ -6750,21 +6751,21 @@
       <c r="C46" s="10">
         <v>44235</v>
       </c>
-      <c r="D46" s="48" t="s">
+      <c r="D46" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="E46" s="48" t="s">
+      <c r="E46" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F46" s="48" t="s">
+      <c r="F46" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="45"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="44" t="s">
+      <c r="G46" s="31"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J46" s="48" t="s">
+      <c r="J46" s="34" t="s">
         <v>156</v>
       </c>
       <c r="K46" s="12"/>
@@ -6783,19 +6784,19 @@
       <c r="C47" s="10">
         <v>44235</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="E47" s="48" t="s">
+      <c r="E47" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="34" t="s">
         <v>204</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="48" t="s">
+      <c r="J47" s="34" t="s">
         <v>205</v>
       </c>
       <c r="K47" s="12"/>
@@ -6814,19 +6815,19 @@
       <c r="C48" s="10">
         <v>44235</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="48" t="s">
+      <c r="F48" s="34" t="s">
         <v>193</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="48" t="s">
+      <c r="J48" s="34" t="s">
         <v>194</v>
       </c>
       <c r="K48" s="12"/>
@@ -6845,19 +6846,19 @@
       <c r="C49" s="10">
         <v>44235</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="E49" s="48" t="s">
+      <c r="E49" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="34" t="s">
         <v>196</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="48" t="s">
+      <c r="J49" s="34" t="s">
         <v>197</v>
       </c>
       <c r="K49" s="12"/>
@@ -6876,19 +6877,19 @@
       <c r="C50" s="10">
         <v>44235</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="34" t="s">
         <v>199</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="48" t="s">
+      <c r="J50" s="34" t="s">
         <v>200</v>
       </c>
       <c r="K50" s="12"/>
@@ -6907,19 +6908,19 @@
       <c r="C51" s="10">
         <v>44235</v>
       </c>
-      <c r="D51" s="50" t="s">
+      <c r="D51" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F51" s="48" t="s">
+      <c r="F51" s="34" t="s">
         <v>201</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="48" t="s">
+      <c r="J51" s="34" t="s">
         <v>202</v>
       </c>
       <c r="K51" s="12"/>
@@ -6938,19 +6939,19 @@
       <c r="C52" s="10">
         <v>44235</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="48" t="s">
+      <c r="F52" s="34" t="s">
         <v>158</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="48" t="s">
+      <c r="J52" s="34" t="s">
         <v>159</v>
       </c>
       <c r="K52" s="12"/>
@@ -6969,19 +6970,19 @@
       <c r="C53" s="10">
         <v>44235</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F53" s="48" t="s">
+      <c r="F53" s="34" t="s">
         <v>207</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="48" t="s">
+      <c r="J53" s="34" t="s">
         <v>208</v>
       </c>
       <c r="K53" s="12"/>
@@ -7000,23 +7001,23 @@
       <c r="C54" s="10">
         <v>44235</v>
       </c>
-      <c r="D54" s="48" t="s">
+      <c r="D54" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F54" s="48" t="s">
+      <c r="F54" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="G54" s="45" t="s">
+      <c r="G54" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="H54" s="46"/>
-      <c r="I54" s="51" t="s">
+      <c r="H54" s="32"/>
+      <c r="I54" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="J54" s="48" t="s">
+      <c r="J54" s="34" t="s">
         <v>113</v>
       </c>
       <c r="K54" s="12"/>
@@ -7035,21 +7036,21 @@
       <c r="C55" s="10">
         <v>44235</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="D55" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="E55" s="48" t="s">
+      <c r="E55" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F55" s="48" t="s">
+      <c r="F55" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="G55" s="45"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="44" t="s">
+      <c r="G55" s="31"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J55" s="48" t="s">
+      <c r="J55" s="34" t="s">
         <v>118</v>
       </c>
       <c r="K55" s="12"/>
@@ -7068,23 +7069,23 @@
       <c r="C56" s="10">
         <v>44235</v>
       </c>
-      <c r="D56" s="48" t="s">
+      <c r="D56" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="E56" s="48" t="s">
+      <c r="E56" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F56" s="48" t="s">
+      <c r="F56" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="G56" s="45" t="s">
+      <c r="G56" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="H56" s="46"/>
-      <c r="I56" s="44" t="s">
+      <c r="H56" s="32"/>
+      <c r="I56" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J56" s="48" t="s">
+      <c r="J56" s="34" t="s">
         <v>121</v>
       </c>
       <c r="K56" s="12"/>
@@ -7103,21 +7104,21 @@
       <c r="C57" s="10">
         <v>44235</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="D57" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F57" s="48" t="s">
+      <c r="F57" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="G57" s="45"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="44" t="s">
+      <c r="G57" s="31"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J57" s="48" t="s">
+      <c r="J57" s="34" t="s">
         <v>124</v>
       </c>
       <c r="K57" s="12"/>
@@ -7136,21 +7137,21 @@
       <c r="C58" s="10">
         <v>44235</v>
       </c>
-      <c r="D58" s="48" t="s">
+      <c r="D58" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="E58" s="48" t="s">
+      <c r="E58" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F58" s="48" t="s">
+      <c r="F58" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="44" t="s">
+      <c r="G58" s="31"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J58" s="48" t="s">
+      <c r="J58" s="34" t="s">
         <v>127</v>
       </c>
       <c r="K58" s="12"/>
@@ -7169,21 +7170,21 @@
       <c r="C59" s="10">
         <v>44235</v>
       </c>
-      <c r="D59" s="48" t="s">
+      <c r="D59" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="E59" s="48" t="s">
+      <c r="E59" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F59" s="48" t="s">
+      <c r="F59" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="G59" s="45"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="44" t="s">
+      <c r="G59" s="31"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J59" s="48" t="s">
+      <c r="J59" s="34" t="s">
         <v>130</v>
       </c>
       <c r="K59" s="12"/>
@@ -7204,21 +7205,21 @@
       <c r="C60" s="10">
         <v>44235</v>
       </c>
-      <c r="D60" s="48" t="s">
+      <c r="D60" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F60" s="48" t="s">
+      <c r="F60" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="G60" s="45"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="44" t="s">
+      <c r="G60" s="31"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J60" s="48" t="s">
+      <c r="J60" s="34" t="s">
         <v>127</v>
       </c>
       <c r="K60" s="12" t="s">
@@ -7243,21 +7244,21 @@
       <c r="C61" s="10">
         <v>44235</v>
       </c>
-      <c r="D61" s="48" t="s">
+      <c r="D61" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="48" t="s">
+      <c r="E61" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F61" s="48" t="s">
+      <c r="F61" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="G61" s="45"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="44" t="s">
+      <c r="G61" s="31"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J61" s="48" t="s">
+      <c r="J61" s="34" t="s">
         <v>133</v>
       </c>
       <c r="K61" s="12" t="s">
@@ -7284,19 +7285,19 @@
       <c r="C62" s="10">
         <v>44235</v>
       </c>
-      <c r="D62" s="49" t="s">
+      <c r="D62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="48" t="s">
+      <c r="E62" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F62" s="49" t="s">
+      <c r="F62" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49" t="s">
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35" t="s">
         <v>136</v>
       </c>
       <c r="K62" s="12" t="s">
@@ -7323,21 +7324,21 @@
       <c r="C63" s="10">
         <v>44235</v>
       </c>
-      <c r="D63" s="48" t="s">
+      <c r="D63" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="E63" s="48" t="s">
+      <c r="E63" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F63" s="48" t="s">
+      <c r="F63" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="G63" s="45"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="44" t="s">
+      <c r="G63" s="31"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J63" s="48" t="s">
+      <c r="J63" s="34" t="s">
         <v>139</v>
       </c>
       <c r="K63" s="12" t="s">
@@ -7364,21 +7365,21 @@
       <c r="C64" s="10">
         <v>44235</v>
       </c>
-      <c r="D64" s="48" t="s">
+      <c r="D64" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="E64" s="48" t="s">
+      <c r="E64" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F64" s="48" t="s">
+      <c r="F64" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="G64" s="45"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="44" t="s">
+      <c r="G64" s="31"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J64" s="48" t="s">
+      <c r="J64" s="34" t="s">
         <v>142</v>
       </c>
       <c r="K64" s="12" t="s">
@@ -7405,19 +7406,19 @@
       <c r="C65" s="10">
         <v>44235</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="E65" s="48" t="s">
+      <c r="E65" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F65" s="49" t="s">
+      <c r="F65" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49" t="s">
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35" t="s">
         <v>136</v>
       </c>
       <c r="K65" s="12" t="s">
@@ -7444,21 +7445,21 @@
       <c r="C66" s="10">
         <v>44235</v>
       </c>
-      <c r="D66" s="48" t="s">
+      <c r="D66" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F66" s="48" t="s">
+      <c r="F66" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="G66" s="45"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="44" t="s">
+      <c r="G66" s="31"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J66" s="48" t="s">
+      <c r="J66" s="34" t="s">
         <v>147</v>
       </c>
       <c r="K66" s="12" t="s">
@@ -7482,21 +7483,21 @@
       <c r="C67" s="10">
         <v>44235</v>
       </c>
-      <c r="D67" s="48" t="s">
+      <c r="D67" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="E67" s="48" t="s">
+      <c r="E67" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F67" s="48" t="s">
+      <c r="F67" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="G67" s="45"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="44" t="s">
+      <c r="G67" s="31"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J67" s="48" t="s">
+      <c r="J67" s="34" t="s">
         <v>150</v>
       </c>
     </row>
@@ -7507,21 +7508,21 @@
       <c r="C68" s="10">
         <v>44235</v>
       </c>
-      <c r="D68" s="48" t="s">
+      <c r="D68" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="E68" s="48" t="s">
+      <c r="E68" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F68" s="48" t="s">
+      <c r="F68" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="G68" s="45"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="44" t="s">
+      <c r="G68" s="31"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J68" s="48" t="s">
+      <c r="J68" s="34" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7532,21 +7533,21 @@
       <c r="C69" s="10">
         <v>44235</v>
       </c>
-      <c r="D69" s="48" t="s">
+      <c r="D69" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="48" t="s">
+      <c r="E69" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F69" s="48" t="s">
+      <c r="F69" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="G69" s="45"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="44" t="s">
+      <c r="G69" s="31"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J69" s="48" t="s">
+      <c r="J69" s="34" t="s">
         <v>165</v>
       </c>
     </row>
@@ -7557,21 +7558,21 @@
       <c r="C70" s="10">
         <v>44235</v>
       </c>
-      <c r="D70" s="48" t="s">
+      <c r="D70" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="E70" s="48" t="s">
+      <c r="E70" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F70" s="48" t="s">
+      <c r="F70" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="G70" s="45"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="44" t="s">
+      <c r="G70" s="31"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J70" s="48" t="s">
+      <c r="J70" s="34" t="s">
         <v>168</v>
       </c>
     </row>
@@ -7582,21 +7583,21 @@
       <c r="C71" s="10">
         <v>44235</v>
       </c>
-      <c r="D71" s="48" t="s">
+      <c r="D71" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="E71" s="48" t="s">
+      <c r="E71" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F71" s="48" t="s">
+      <c r="F71" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="G71" s="45"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="44" t="s">
+      <c r="G71" s="31"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J71" s="48" t="s">
+      <c r="J71" s="34" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7607,21 +7608,21 @@
       <c r="C72" s="10">
         <v>44235</v>
       </c>
-      <c r="D72" s="48" t="s">
+      <c r="D72" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="E72" s="48" t="s">
+      <c r="E72" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F72" s="48" t="s">
+      <c r="F72" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="G72" s="45"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="44" t="s">
+      <c r="G72" s="31"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J72" s="48" t="s">
+      <c r="J72" s="34" t="s">
         <v>174</v>
       </c>
     </row>
@@ -7632,21 +7633,21 @@
       <c r="C73" s="10">
         <v>44235</v>
       </c>
-      <c r="D73" s="48" t="s">
+      <c r="D73" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="E73" s="48" t="s">
+      <c r="E73" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F73" s="48" t="s">
+      <c r="F73" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="G73" s="45"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="44" t="s">
+      <c r="G73" s="31"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J73" s="48" t="s">
+      <c r="J73" s="34" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7657,19 +7658,19 @@
       <c r="C74" s="10">
         <v>44235</v>
       </c>
-      <c r="D74" s="49" t="s">
+      <c r="D74" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="E74" s="48" t="s">
+      <c r="E74" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F74" s="49" t="s">
+      <c r="F74" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49" t="s">
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7680,21 +7681,21 @@
       <c r="C75" s="10">
         <v>44235</v>
       </c>
-      <c r="D75" s="48" t="s">
+      <c r="D75" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="48" t="s">
+      <c r="E75" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F75" s="48" t="s">
+      <c r="F75" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="G75" s="45"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="44" t="s">
+      <c r="G75" s="31"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J75" s="48" t="s">
+      <c r="J75" s="34" t="s">
         <v>183</v>
       </c>
     </row>
@@ -7705,21 +7706,21 @@
       <c r="C76" s="10">
         <v>44235</v>
       </c>
-      <c r="D76" s="48" t="s">
+      <c r="D76" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="E76" s="48" t="s">
+      <c r="E76" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F76" s="48" t="s">
+      <c r="F76" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="G76" s="45"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="44" t="s">
+      <c r="G76" s="31"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J76" s="48" t="s">
+      <c r="J76" s="34" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7730,21 +7731,21 @@
       <c r="C77" s="10">
         <v>44235</v>
       </c>
-      <c r="D77" s="48" t="s">
+      <c r="D77" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="E77" s="48" t="s">
+      <c r="E77" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F77" s="48" t="s">
+      <c r="F77" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="G77" s="45"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="44" t="s">
+      <c r="G77" s="31"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J77" s="48" t="s">
+      <c r="J77" s="34" t="s">
         <v>188</v>
       </c>
     </row>
@@ -7755,19 +7756,19 @@
       <c r="C78" s="10">
         <v>44235</v>
       </c>
-      <c r="D78" s="49" t="s">
+      <c r="D78" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="E78" s="48" t="s">
+      <c r="E78" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F78" s="49" t="s">
+      <c r="F78" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49" t="s">
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35" t="s">
         <v>191</v>
       </c>
     </row>
@@ -7778,21 +7779,21 @@
       <c r="C79" s="10">
         <v>44235</v>
       </c>
-      <c r="D79" s="48" t="s">
+      <c r="D79" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E79" s="48" t="s">
+      <c r="E79" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F79" s="48" t="s">
+      <c r="F79" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="G79" s="45"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="44" t="s">
+      <c r="G79" s="31"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J79" s="48" t="s">
+      <c r="J79" s="34" t="s">
         <v>153</v>
       </c>
     </row>
@@ -7803,21 +7804,21 @@
       <c r="C80" s="10">
         <v>44235</v>
       </c>
-      <c r="D80" s="48" t="s">
+      <c r="D80" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="E80" s="48" t="s">
+      <c r="E80" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F80" s="48" t="s">
+      <c r="F80" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="G80" s="45"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="44" t="s">
+      <c r="G80" s="31"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J80" s="48" t="s">
+      <c r="J80" s="34" t="s">
         <v>156</v>
       </c>
     </row>
@@ -7828,19 +7829,19 @@
       <c r="C81" s="10">
         <v>44235</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="D81" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="E81" s="48" t="s">
+      <c r="E81" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F81" s="48" t="s">
+      <c r="F81" s="34" t="s">
         <v>252</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
-      <c r="J81" s="48" t="s">
+      <c r="J81" s="34" t="s">
         <v>205</v>
       </c>
     </row>
@@ -7851,19 +7852,19 @@
       <c r="C82" s="10">
         <v>44235</v>
       </c>
-      <c r="D82" s="50" t="s">
+      <c r="D82" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="E82" s="48" t="s">
+      <c r="E82" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F82" s="48" t="s">
+      <c r="F82" s="34" t="s">
         <v>250</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
-      <c r="J82" s="48" t="s">
+      <c r="J82" s="34" t="s">
         <v>194</v>
       </c>
     </row>
@@ -7874,19 +7875,19 @@
       <c r="C83" s="10">
         <v>44235</v>
       </c>
-      <c r="D83" s="50" t="s">
+      <c r="D83" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="E83" s="48" t="s">
+      <c r="E83" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F83" s="48" t="s">
+      <c r="F83" s="34" t="s">
         <v>254</v>
       </c>
       <c r="G83" s="11"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
-      <c r="J83" s="48" t="s">
+      <c r="J83" s="34" t="s">
         <v>197</v>
       </c>
     </row>
@@ -7897,19 +7898,19 @@
       <c r="C84" s="10">
         <v>44235</v>
       </c>
-      <c r="D84" s="50" t="s">
+      <c r="D84" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="E84" s="48" t="s">
+      <c r="E84" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F84" s="48" t="s">
+      <c r="F84" s="34" t="s">
         <v>199</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
-      <c r="J84" s="48" t="s">
+      <c r="J84" s="34" t="s">
         <v>200</v>
       </c>
     </row>
@@ -7920,19 +7921,19 @@
       <c r="C85" s="10">
         <v>44235</v>
       </c>
-      <c r="D85" s="50" t="s">
+      <c r="D85" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="E85" s="48" t="s">
+      <c r="E85" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F85" s="48" t="s">
+      <c r="F85" s="34" t="s">
         <v>256</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
-      <c r="J85" s="48" t="s">
+      <c r="J85" s="34" t="s">
         <v>202</v>
       </c>
     </row>
@@ -7943,19 +7944,19 @@
       <c r="C86" s="10">
         <v>44235</v>
       </c>
-      <c r="D86" s="50" t="s">
+      <c r="D86" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="E86" s="48" t="s">
+      <c r="E86" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F86" s="48" t="s">
+      <c r="F86" s="34" t="s">
         <v>258</v>
       </c>
       <c r="G86" s="11"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
-      <c r="J86" s="48" t="s">
+      <c r="J86" s="34" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7966,19 +7967,19 @@
       <c r="C87" s="10">
         <v>44235</v>
       </c>
-      <c r="D87" s="50" t="s">
+      <c r="D87" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="E87" s="48" t="s">
+      <c r="E87" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F87" s="48" t="s">
+      <c r="F87" s="34" t="s">
         <v>260</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
-      <c r="J87" s="48" t="s">
+      <c r="J87" s="34" t="s">
         <v>208</v>
       </c>
     </row>
@@ -8003,8 +8004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8018,152 +8019,152 @@
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="77" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45"/>
+      <c r="B1" s="60" t="s">
         <v>461</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="70"/>
-    </row>
-    <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="51"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="65" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="46" t="s">
         <v>462</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="65" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="45" t="s">
         <v>463</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="70"/>
-    </row>
-    <row r="3" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="51"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="75">
+      <c r="B3" s="65">
         <v>44235</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="65" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="46" t="s">
         <v>464</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="63" t="s">
         <v>465</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="65" t="s">
+      <c r="F3" s="64"/>
+      <c r="G3" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="70"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="51"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="65" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="63" t="s">
         <v>470</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="65" t="s">
+      <c r="F4" s="64"/>
+      <c r="G4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="70"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="48" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="49" t="s">
         <v>467</v>
       </c>
-      <c r="B6" s="63" t="s">
-        <v>497</v>
-      </c>
-      <c r="C6" s="63" t="s">
+      <c r="B6" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="44" t="s">
         <v>469</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63" t="s">
-        <v>498</v>
+      <c r="F6" s="50"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44" t="s">
+        <v>497</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -8175,52 +8176,52 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="43" t="s">
         <v>493</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="62" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="43" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43" t="s">
         <v>499</v>
       </c>
-      <c r="C8" s="62" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="D8" s="62" t="s">
-        <v>496</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62" t="s">
+      <c r="D9" s="43" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="62" t="s">
-        <v>495</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>492</v>
-      </c>
-      <c r="D9" s="62" t="s">
+      <c r="E9" s="43"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43" t="s">
         <v>501</v>
-      </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8281,13 +8282,13 @@
     <row r="65" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8297,8 +8298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8312,35 +8313,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="70" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53" t="s">
+      <c r="D2" s="69"/>
+      <c r="E2" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
@@ -8352,19 +8353,19 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69" t="s">
         <v>386</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="69"/>
+      <c r="E3" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
         <v>31</v>
@@ -8377,17 +8378,17 @@
       <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="58" t="s">
+      <c r="F4" s="69"/>
+      <c r="G4" s="39" t="s">
         <v>388</v>
       </c>
       <c r="H4" s="14"/>
@@ -8398,43 +8399,43 @@
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="40" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8442,7 +8443,7 @@
       <c r="A6" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="43">
         <v>13325</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -8477,7 +8478,7 @@
       <c r="A7" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="43">
         <v>13325</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -8493,7 +8494,7 @@
         <v>395</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="52" t="s">
         <v>471</v>
       </c>
       <c r="I7" s="14"/>
@@ -8510,7 +8511,7 @@
       <c r="A8" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="43">
         <v>13325</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -8541,7 +8542,7 @@
       <c r="A9" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="43">
         <v>13325</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -8572,7 +8573,7 @@
       <c r="A10" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="43">
         <v>13325</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -8599,7 +8600,7 @@
       <c r="A11" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="43">
         <v>13325</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -8630,7 +8631,7 @@
       <c r="A12" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="43">
         <v>13325</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -8644,7 +8645,7 @@
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="80" t="s">
+      <c r="H12" s="52" t="s">
         <v>483</v>
       </c>
       <c r="I12" s="14"/>
@@ -8661,7 +8662,7 @@
       <c r="A13" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="43">
         <v>13325</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -8690,7 +8691,7 @@
       <c r="A14" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="43">
         <v>13325</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -8719,7 +8720,7 @@
       <c r="A15" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="43">
         <v>13325</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -8752,7 +8753,7 @@
       <c r="A16" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="43">
         <v>13325</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -8787,7 +8788,7 @@
       <c r="A17" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="43">
         <v>13325</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -8818,7 +8819,7 @@
       <c r="A18" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="43">
         <v>13325</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -8831,7 +8832,7 @@
       <c r="F18" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="39" t="s">
         <v>435</v>
       </c>
       <c r="H18" s="14" t="s">
@@ -8851,7 +8852,7 @@
       <c r="A19" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="43">
         <v>13325</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -8886,7 +8887,7 @@
       <c r="A20" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="43">
         <v>13325</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -8898,13 +8899,13 @@
       <c r="E20" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="43" t="s">
         <v>443</v>
       </c>
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="43" t="s">
         <v>444</v>
       </c>
-      <c r="H20" s="80" t="s">
+      <c r="H20" s="52" t="s">
         <v>486</v>
       </c>
       <c r="I20" s="14"/>
@@ -8921,7 +8922,7 @@
       <c r="A21" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="43">
         <v>13325</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -8939,7 +8940,7 @@
       <c r="G21" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="H21" s="80" t="s">
+      <c r="H21" s="52" t="s">
         <v>487</v>
       </c>
       <c r="I21" s="14"/>
@@ -8956,7 +8957,7 @@
       <c r="A22" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="B22" s="62">
+      <c r="B22" s="43">
         <v>13325</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -8966,10 +8967,10 @@
         <v>479</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="43" t="s">
         <v>443</v>
       </c>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="43" t="s">
         <v>435</v>
       </c>
       <c r="H22" s="14" t="s">
@@ -8989,7 +8990,7 @@
       <c r="A23" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="43">
         <v>13325</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -9024,7 +9025,7 @@
       <c r="A24" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="B24" s="62">
+      <c r="B24" s="43">
         <v>13325</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -9034,10 +9035,10 @@
         <v>479</v>
       </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="43" t="s">
         <v>443</v>
       </c>
-      <c r="G24" s="62" t="s">
+      <c r="G24" s="43" t="s">
         <v>451</v>
       </c>
       <c r="H24" s="14" t="s">
@@ -9057,7 +9058,7 @@
       <c r="A25" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="43">
         <v>13325</v>
       </c>
       <c r="C25" s="14" t="s">
@@ -9092,7 +9093,7 @@
       <c r="A26" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="43">
         <v>13325</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -9110,7 +9111,7 @@
       <c r="G26" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="H26" s="80" t="s">
+      <c r="H26" s="52" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="14"/>
@@ -9127,79 +9128,79 @@
       <c r="A27" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="43">
         <v>13325</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63" t="s">
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44" t="s">
         <v>458</v>
       </c>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
       <c r="M27" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="B28" s="62"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="44" t="s">
         <v>490</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="80" t="s">
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="52" t="s">
         <v>491</v>
       </c>
-      <c r="I28" s="63"/>
+      <c r="I28" s="44"/>
       <c r="J28" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="43">
         <v>13325</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="44" t="s">
         <v>482</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63" t="s">
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
       <c r="M29" s="14" t="s">
         <v>42</v>
       </c>
@@ -9226,7 +9227,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9243,35 +9244,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="70" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53" t="s">
+      <c r="D2" s="69"/>
+      <c r="E2" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
@@ -9283,19 +9284,19 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="73" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
         <v>31</v>
@@ -9308,17 +9309,17 @@
       <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="53" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="58" t="s">
+      <c r="F4" s="69"/>
+      <c r="G4" s="39" t="s">
         <v>340</v>
       </c>
       <c r="H4" s="14"/>
@@ -9329,43 +9330,43 @@
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="40" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9374,7 +9375,7 @@
         <v>342</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="55">
+      <c r="C6" s="38">
         <v>44235</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -9393,7 +9394,7 @@
         <v>66</v>
       </c>
       <c r="I6" s="14"/>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="41" t="s">
         <v>346</v>
       </c>
       <c r="K6" s="14"/>
@@ -9407,7 +9408,7 @@
         <v>347</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="55">
+      <c r="C7" s="38">
         <v>44235</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -9436,7 +9437,7 @@
         <v>350</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="55">
+      <c r="C8" s="38">
         <v>44235</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -9465,7 +9466,7 @@
         <v>353</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="55">
+      <c r="C9" s="38">
         <v>44235</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -9496,7 +9497,7 @@
         <v>354</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="55">
+      <c r="C10" s="38">
         <v>44235</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -9523,7 +9524,7 @@
         <v>355</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="55">
+      <c r="C11" s="38">
         <v>44235</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -9552,7 +9553,7 @@
         <v>358</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="55">
+      <c r="C12" s="38">
         <v>44235</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -9581,7 +9582,7 @@
         <v>362</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="55">
+      <c r="C13" s="38">
         <v>44235</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -9610,7 +9611,7 @@
         <v>365</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="55">
+      <c r="C14" s="38">
         <v>44235</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -9639,7 +9640,7 @@
         <v>368</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="55">
+      <c r="C15" s="38">
         <v>44235</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -9668,10 +9669,10 @@
         <v>372</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="55">
+      <c r="C16" s="38">
         <v>44235</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="42" t="s">
         <v>373</v>
       </c>
       <c r="E16" s="14" t="s">
@@ -9697,7 +9698,7 @@
         <v>375</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="55">
+      <c r="C17" s="38">
         <v>44235</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -9724,7 +9725,7 @@
         <v>377</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="55">
+      <c r="C18" s="38">
         <v>44235</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -9784,24 +9785,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -9887,47 +9888,47 @@
   <sheetData>
     <row r="1" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="41"/>
+      <c r="L2" s="80"/>
       <c r="M2" s="3" t="s">
         <v>53</v>
       </c>
@@ -9940,11 +9941,11 @@
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="4"/>
       <c r="E3" s="3" t="s">
         <v>5</v>
@@ -9954,10 +9955,10 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="43"/>
+      <c r="L3" s="82"/>
       <c r="M3" s="15">
         <v>12690</v>
       </c>
